--- a/data/mythographie.xlsx
+++ b/data/mythographie.xlsx
@@ -5,15 +5,16 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegopellizzari/Documents/OBVIL/mythographie/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/mythographies/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mythographie_nodes.csv" sheetId="3" r:id="rId1"/>
     <sheet name="Graphies" sheetId="1" r:id="rId2"/>
+    <sheet name="Graphie non reconnues" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="list_aut_1" localSheetId="1">Graphies!$A$4:$A$1531</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6563" uniqueCount="3289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7298" uniqueCount="3952">
   <si>
     <t>Francklin’s</t>
   </si>
@@ -10119,6 +10120,1995 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>Graphie non reconnue</t>
+  </si>
+  <si>
+    <t>effectif</t>
+  </si>
+  <si>
+    <t>Desaintange</t>
+  </si>
+  <si>
+    <t>La Font.</t>
+  </si>
+  <si>
+    <t>Anonyme</t>
+  </si>
+  <si>
+    <t>L. Morris</t>
+  </si>
+  <si>
+    <t>Saintange</t>
+  </si>
+  <si>
+    <t>Crébillon</t>
+  </si>
+  <si>
+    <t>Seemann</t>
+  </si>
+  <si>
+    <t>Shakspeare</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Mrs. Browning</t>
+  </si>
+  <si>
+    <t>Colardeau</t>
+  </si>
+  <si>
+    <t>Molière</t>
+  </si>
+  <si>
+    <t>Zoroastre</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Berens</t>
+  </si>
+  <si>
+    <t>Lao-tze</t>
+  </si>
+  <si>
+    <t>Le même</t>
+  </si>
+  <si>
+    <t>M. Arnold</t>
+  </si>
+  <si>
+    <t>Rabelais</t>
+  </si>
+  <si>
+    <t>Sanchoniaton</t>
+  </si>
+  <si>
+    <t>J. S. Blackie</t>
+  </si>
+  <si>
+    <t>Th. Corneille</t>
+  </si>
+  <si>
+    <t>Alfred Tennyson</t>
+  </si>
+  <si>
+    <t>Cæsar</t>
+  </si>
+  <si>
+    <t>Chompré</t>
+  </si>
+  <si>
+    <t>Tighe</t>
+  </si>
+  <si>
+    <t>W. Morris</t>
+  </si>
+  <si>
+    <t>Edith M. Thomas</t>
+  </si>
+  <si>
+    <t>Henry Wadsworth Longfellow</t>
+  </si>
+  <si>
+    <t>le même poëte</t>
+  </si>
+  <si>
+    <t>Madame de Lambert</t>
+  </si>
+  <si>
+    <t>madame Deshoulières</t>
+  </si>
+  <si>
+    <t>Michel-Ange</t>
+  </si>
+  <si>
+    <t>Oannès</t>
+  </si>
+  <si>
+    <t>Van-Dale</t>
+  </si>
+  <si>
+    <t>Apollonius de Rhodes</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>Belzoni</t>
+  </si>
+  <si>
+    <t>Béranger</t>
+  </si>
+  <si>
+    <t>Brinton</t>
+  </si>
+  <si>
+    <t>C. Pitt</t>
+  </si>
+  <si>
+    <t>Chénier</t>
+  </si>
+  <si>
+    <t>d’Arnaud</t>
+  </si>
+  <si>
+    <t>De la Fosse</t>
+  </si>
+  <si>
+    <t>Despréaux</t>
+  </si>
+  <si>
+    <t>Dr. Young</t>
+  </si>
+  <si>
+    <t>Esope</t>
+  </si>
+  <si>
+    <t>J.-B. Rousseau</t>
+  </si>
+  <si>
+    <t>John Stuart Blackie’s</t>
+  </si>
+  <si>
+    <t>Jules César</t>
+  </si>
+  <si>
+    <t>Keightley</t>
+  </si>
+  <si>
+    <t>l’auteur chaldéen</t>
+  </si>
+  <si>
+    <t>Le Gouvé</t>
+  </si>
+  <si>
+    <t>Le même auteur</t>
+  </si>
+  <si>
+    <t>Madame de Genlis</t>
+  </si>
+  <si>
+    <t>Musset</t>
+  </si>
+  <si>
+    <t>P. Corneille</t>
+  </si>
+  <si>
+    <t>Pennant</t>
+  </si>
+  <si>
+    <t>Phœbe Cary</t>
+  </si>
+  <si>
+    <t>S. G. Bulfinch</t>
+  </si>
+  <si>
+    <t>Saphos</t>
+  </si>
+  <si>
+    <t>St. Justin</t>
+  </si>
+  <si>
+    <t>Thales</t>
+  </si>
+  <si>
+    <t>Thurlow</t>
+  </si>
+  <si>
+    <t>Arnault</t>
+  </si>
+  <si>
+    <t>Béger</t>
+  </si>
+  <si>
+    <t>Brebeuf</t>
+  </si>
+  <si>
+    <t>Bulwer</t>
+  </si>
+  <si>
+    <t>C. ***</t>
+  </si>
+  <si>
+    <t>Chersiphron</t>
+  </si>
+  <si>
+    <t>Clément d’Alexandrie</t>
+  </si>
+  <si>
+    <t>Corneilles</t>
+  </si>
+  <si>
+    <t>Dellile</t>
+  </si>
+  <si>
+    <t>Democritus</t>
+  </si>
+  <si>
+    <t>Demosthenes</t>
+  </si>
+  <si>
+    <t>Démosthènes</t>
+  </si>
+  <si>
+    <t>Dr. Clarke</t>
+  </si>
+  <si>
+    <t>E. Fitzgerald</t>
+  </si>
+  <si>
+    <t>Eliza Robbins</t>
+  </si>
+  <si>
+    <t>Elton’s Hesiod</t>
+  </si>
+  <si>
+    <t>Eugène Géruzez</t>
+  </si>
+  <si>
+    <t>Fitz-Greene Halleck</t>
+  </si>
+  <si>
+    <t>Fréret</t>
+  </si>
+  <si>
+    <t>Galien</t>
+  </si>
+  <si>
+    <t>Guido’s</t>
+  </si>
+  <si>
+    <t>H. K. White</t>
+  </si>
+  <si>
+    <t>H. King</t>
+  </si>
+  <si>
+    <t>Hon. Roden Noel</t>
+  </si>
+  <si>
+    <t>Howitt</t>
+  </si>
+  <si>
+    <t>Hyde</t>
+  </si>
+  <si>
+    <t>Ibicus</t>
+  </si>
+  <si>
+    <t>J. Freeman Clarke</t>
+  </si>
+  <si>
+    <t>J. W. Powell</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Joseph Brunel</t>
+  </si>
+  <si>
+    <t>Josèphe</t>
+  </si>
+  <si>
+    <t>Jules-César</t>
+  </si>
+  <si>
+    <t>Julius Cæsar</t>
+  </si>
+  <si>
+    <t>Juvenal</t>
+  </si>
+  <si>
+    <t>L. Racine</t>
+  </si>
+  <si>
+    <t>Lacepède</t>
+  </si>
+  <si>
+    <t>Lafontaine</t>
+  </si>
+  <si>
+    <t>Laharpe</t>
+  </si>
+  <si>
+    <t>le poëte</t>
+  </si>
+  <si>
+    <t>Linnée</t>
+  </si>
+  <si>
+    <t>Locke</t>
+  </si>
+  <si>
+    <t>Lucilius</t>
+  </si>
+  <si>
+    <t>Maurice-Élisabeth de Lavergne, abbé de Tressan</t>
+  </si>
+  <si>
+    <t>Mme du Châtelet</t>
+  </si>
+  <si>
+    <t>Mme Roland</t>
+  </si>
+  <si>
+    <t>Mrs. H. H. Jackson</t>
+  </si>
+  <si>
+    <t>Mrs. Tighe</t>
+  </si>
+  <si>
+    <t>Noël</t>
+  </si>
+  <si>
+    <t>P. Schobelt</t>
+  </si>
+  <si>
+    <t>Palissot</t>
+  </si>
+  <si>
+    <t>Panard</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Pétronne</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>Phydias</t>
+  </si>
+  <si>
+    <t>Pindares</t>
+  </si>
+  <si>
+    <t>Piron</t>
+  </si>
+  <si>
+    <t>Pline le naturaliste</t>
+  </si>
+  <si>
+    <t>Procopius</t>
+  </si>
+  <si>
+    <t>Protogène</t>
+  </si>
+  <si>
+    <t>Proudhon</t>
+  </si>
+  <si>
+    <t>Quintus, de Smyrne</t>
+  </si>
+  <si>
+    <t>R. Whitelaw</t>
+  </si>
+  <si>
+    <t>Racine fils</t>
+  </si>
+  <si>
+    <t>Richer</t>
+  </si>
+  <si>
+    <t>Roman writers</t>
+  </si>
+  <si>
+    <t>Ronsard</t>
+  </si>
+  <si>
+    <t>S. Rogers</t>
+  </si>
+  <si>
+    <t>Scaliger</t>
+  </si>
+  <si>
+    <t>Schlegel</t>
+  </si>
+  <si>
+    <t>Shakspeare’s</t>
+  </si>
+  <si>
+    <t>Shakspere</t>
+  </si>
+  <si>
+    <t>Sir Richard Blackmore</t>
+  </si>
+  <si>
+    <t>Sir W. Jones</t>
+  </si>
+  <si>
+    <t>Socrates</t>
+  </si>
+  <si>
+    <t>T. A. Bucklie</t>
+  </si>
+  <si>
+    <t>T. Corneille</t>
+  </si>
+  <si>
+    <t>T. K. Hervey</t>
+  </si>
+  <si>
+    <t>T. L. Beddoes</t>
+  </si>
+  <si>
+    <t>Teignmouth</t>
+  </si>
+  <si>
+    <t>Thaut</t>
+  </si>
+  <si>
+    <t>The same authority</t>
+  </si>
+  <si>
+    <t>Un autre poëte</t>
+  </si>
+  <si>
+    <t>Villemain Dabancour</t>
+  </si>
+  <si>
+    <t>Walter Pater</t>
+  </si>
+  <si>
+    <t>William Cullen Bryant</t>
+  </si>
+  <si>
+    <t>, Guy</t>
+  </si>
+  <si>
+    <t>, m</t>
+  </si>
+  <si>
+    <t>.-B. Rousseau</t>
+  </si>
+  <si>
+    <t>a celebrated Roman architect</t>
+  </si>
+  <si>
+    <t>A late writer</t>
+  </si>
+  <si>
+    <t>a Roman historian</t>
+  </si>
+  <si>
+    <t>a writer eminent in the knowledge of their antiquities</t>
+  </si>
+  <si>
+    <t>A. Keith Johnston</t>
+  </si>
+  <si>
+    <t>A. Pisano</t>
+  </si>
+  <si>
+    <t>Abeilard</t>
+  </si>
+  <si>
+    <t>Adelaide Anne Procter</t>
+  </si>
+  <si>
+    <t>Æ′sop</t>
+  </si>
+  <si>
+    <t>Æs′chylus</t>
+  </si>
+  <si>
+    <t>Agamède</t>
+  </si>
+  <si>
+    <t>Agéladas l’Argien</t>
+  </si>
+  <si>
+    <t>Albano</t>
+  </si>
+  <si>
+    <t>Alcæ′us</t>
+  </si>
+  <si>
+    <t>Aldrovandus</t>
+  </si>
+  <si>
+    <t>Alexander Ross</t>
+  </si>
+  <si>
+    <t>Allan Cunningham</t>
+  </si>
+  <si>
+    <t>Ammien</t>
+  </si>
+  <si>
+    <t>an able writer of the present day</t>
+  </si>
+  <si>
+    <t>An ancient poet</t>
+  </si>
+  <si>
+    <t>an eminent Grecian scholar</t>
+  </si>
+  <si>
+    <t>An English poet</t>
+  </si>
+  <si>
+    <t>Anon.</t>
+  </si>
+  <si>
+    <t>Anyte, Citoyenne d’Épidaure</t>
+  </si>
+  <si>
+    <t>Apel′les</t>
+  </si>
+  <si>
+    <t>Apollo′nius (of Rhodes)</t>
+  </si>
+  <si>
+    <t>Apollodo′rus</t>
+  </si>
+  <si>
+    <t>Apollodore le chronographe</t>
+  </si>
+  <si>
+    <t>Appelle</t>
+  </si>
+  <si>
+    <t>Appelles</t>
+  </si>
+  <si>
+    <t>Apule′ius</t>
+  </si>
+  <si>
+    <t>Aratus</t>
+  </si>
+  <si>
+    <t>Arcésilas de Chio</t>
+  </si>
+  <si>
+    <t>Arien</t>
+  </si>
+  <si>
+    <t>Arioste</t>
+  </si>
+  <si>
+    <t>Aristoph′a-nes</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Arouet</t>
+  </si>
+  <si>
+    <t>Artémidore</t>
+  </si>
+  <si>
+    <t>Ary Scheffer</t>
+  </si>
+  <si>
+    <t>Augusta Larned</t>
+  </si>
+  <si>
+    <t>Aurélius Victor</t>
+  </si>
+  <si>
+    <t>Aussonne</t>
+  </si>
+  <si>
+    <t>auteur de Télémaqu</t>
+  </si>
+  <si>
+    <t>auteur de Télémaque</t>
+  </si>
+  <si>
+    <t>auteur du Comte de Valmont</t>
+  </si>
+  <si>
+    <t>auteur du Voyage du jeune Anacharsis</t>
+  </si>
+  <si>
+    <t>author of this work</t>
+  </si>
+  <si>
+    <t>Avicenna</t>
+  </si>
+  <si>
+    <t>Baïf</t>
+  </si>
+  <si>
+    <t>Bailli</t>
+  </si>
+  <si>
+    <t>Balzac</t>
+  </si>
+  <si>
+    <t>Bannier</t>
+  </si>
+  <si>
+    <t>Barbe</t>
+  </si>
+  <si>
+    <t>Barry Cornwal</t>
+  </si>
+  <si>
+    <t>Barthélemy Saint-Hilaire</t>
+  </si>
+  <si>
+    <t>Beauharnais</t>
+  </si>
+  <si>
+    <t>Belleau</t>
+  </si>
+  <si>
+    <t>Bennett, W. C.</t>
+  </si>
+  <si>
+    <t>Berchoux</t>
+  </si>
+  <si>
+    <t>Beyschlag, J. R.</t>
+  </si>
+  <si>
+    <t>Bi′on</t>
+  </si>
+  <si>
+    <t>Bias </t>
+  </si>
+  <si>
+    <t>Bishop Horsley</t>
+  </si>
+  <si>
+    <t>Blackie, J. S.</t>
+  </si>
+  <si>
+    <t>Bochard</t>
+  </si>
+  <si>
+    <t>Bochart</t>
+  </si>
+  <si>
+    <t>Bollandus</t>
+  </si>
+  <si>
+    <t>Bonald</t>
+  </si>
+  <si>
+    <t>Bordone, Paris</t>
+  </si>
+  <si>
+    <t>Bouchardon</t>
+  </si>
+  <si>
+    <t>Bourdaloue</t>
+  </si>
+  <si>
+    <t>Brébœuf</t>
+  </si>
+  <si>
+    <t>Brillat-Savarin</t>
+  </si>
+  <si>
+    <t>Brunel, d’Amiens</t>
+  </si>
+  <si>
+    <t>Bryant, W. C.</t>
+  </si>
+  <si>
+    <t>Bryniolf</t>
+  </si>
+  <si>
+    <t>Bulfinch, S. G.</t>
+  </si>
+  <si>
+    <t>Bullfinch</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>Buttmann</t>
+  </si>
+  <si>
+    <t>C. G. Gleyre</t>
+  </si>
+  <si>
+    <t>C. G. Leland</t>
+  </si>
+  <si>
+    <t>C. Gleyre</t>
+  </si>
+  <si>
+    <t>Caesar</t>
+  </si>
+  <si>
+    <t>Callicrates</t>
+  </si>
+  <si>
+    <t>Calmet</t>
+  </si>
+  <si>
+    <t>Camoens</t>
+  </si>
+  <si>
+    <t>Cantu</t>
+  </si>
+  <si>
+    <t>Captain Argoll</t>
+  </si>
+  <si>
+    <t>Casimir Delavigne</t>
+  </si>
+  <si>
+    <t>Cassius Médicus</t>
+  </si>
+  <si>
+    <t>Catherine Ann White</t>
+  </si>
+  <si>
+    <t>Catul′lus</t>
+  </si>
+  <si>
+    <t>Ce savant</t>
+  </si>
+  <si>
+    <t>célèbre historien du Danemarck</t>
+  </si>
+  <si>
+    <t>cet ancien auteur</t>
+  </si>
+  <si>
+    <t>cet auteur</t>
+  </si>
+  <si>
+    <t>Champfort</t>
+  </si>
+  <si>
+    <t>chantre d’Achille</t>
+  </si>
+  <si>
+    <t>Chapelle</t>
+  </si>
+  <si>
+    <t>Charès de Lynde</t>
+  </si>
+  <si>
+    <t>Charles Chênedollé</t>
+  </si>
+  <si>
+    <t>Charles-Constant Letellier</t>
+  </si>
+  <si>
+    <t>Châteaubriand</t>
+  </si>
+  <si>
+    <t>Chilo</t>
+  </si>
+  <si>
+    <t>Chilo of Lacedemon</t>
+  </si>
+  <si>
+    <t>Christopher Marlowe</t>
+  </si>
+  <si>
+    <t>Cic′ero</t>
+  </si>
+  <si>
+    <t>Ciceron</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Claude-Joseph Drioux</t>
+  </si>
+  <si>
+    <t>Clavigero</t>
+  </si>
+  <si>
+    <t>Cléobule </t>
+  </si>
+  <si>
+    <t>Coleridge, S. T.</t>
+  </si>
+  <si>
+    <t>Collé</t>
+  </si>
+  <si>
+    <t>Collins, W. L.</t>
+  </si>
+  <si>
+    <t>Cox, the Rev. Sir G. W.</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Creutzer</t>
+  </si>
+  <si>
+    <t>Cuvier</t>
+  </si>
+  <si>
+    <t>Cygne de Méonie</t>
+  </si>
+  <si>
+    <t>D ***</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>D’Alembert</t>
+  </si>
+  <si>
+    <t>Damophon de Sicyone</t>
+  </si>
+  <si>
+    <t>De Lamotte</t>
+  </si>
+  <si>
+    <t>de Laurès</t>
+  </si>
+  <si>
+    <t>De Longepierre</t>
+  </si>
+  <si>
+    <t>Debraux</t>
+  </si>
+  <si>
+    <t>Denys d’Halicarnasse</t>
+  </si>
+  <si>
+    <t>Des historiens à courte vue</t>
+  </si>
+  <si>
+    <t>Désaugiers</t>
+  </si>
+  <si>
+    <t>Desboulmiers</t>
+  </si>
+  <si>
+    <t>Diodore de Sicil</t>
+  </si>
+  <si>
+    <t>Diogène</t>
+  </si>
+  <si>
+    <t>Dionys Ordinaire</t>
+  </si>
+  <si>
+    <t>dom Pezron</t>
+  </si>
+  <si>
+    <t>Dr. Clark</t>
+  </si>
+  <si>
+    <t>Dr. Johnson</t>
+  </si>
+  <si>
+    <t>Dr. Turner</t>
+  </si>
+  <si>
+    <t>Dr. W. Jordan</t>
+  </si>
+  <si>
+    <t>du Bartas</t>
+  </si>
+  <si>
+    <t>Dubois-Fontanelle</t>
+  </si>
+  <si>
+    <t>Duc de Buckingham</t>
+  </si>
+  <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>E. A. Reed</t>
+  </si>
+  <si>
+    <t>E. Arnold</t>
+  </si>
+  <si>
+    <t>E. C. Guild</t>
+  </si>
+  <si>
+    <t>E. D. A. Morshead</t>
+  </si>
+  <si>
+    <t>E. J. Paupion</t>
+  </si>
+  <si>
+    <t>E. R. Sill</t>
+  </si>
+  <si>
+    <t>Earl Derby</t>
+  </si>
+  <si>
+    <t>écrivain sacré</t>
+  </si>
+  <si>
+    <t>Edward S. Ellis</t>
+  </si>
+  <si>
+    <t>Edwards, Miss A. B.</t>
+  </si>
+  <si>
+    <t>Emma Morel</t>
+  </si>
+  <si>
+    <t>Ep-imen′i-des</t>
+  </si>
+  <si>
+    <t>Epictète</t>
+  </si>
+  <si>
+    <t>Épimenides</t>
+  </si>
+  <si>
+    <t>Ératosthène</t>
+  </si>
+  <si>
+    <t>Eschylus</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Eugène Burnouf</t>
+  </si>
+  <si>
+    <t>Euhem′erus</t>
+  </si>
+  <si>
+    <t>Euler</t>
+  </si>
+  <si>
+    <t>Eumélus</t>
+  </si>
+  <si>
+    <t>Eurip′i-des</t>
+  </si>
+  <si>
+    <t>évangélistes</t>
+  </si>
+  <si>
+    <t>Ezekiel</t>
+  </si>
+  <si>
+    <t>F. B. Jevons</t>
+  </si>
+  <si>
+    <t>F. Forster</t>
+  </si>
+  <si>
+    <t>F. Tennyson</t>
+  </si>
+  <si>
+    <t>F. W. Horn</t>
+  </si>
+  <si>
+    <t>F. Y. Powell</t>
+  </si>
+  <si>
+    <t>Fable du Léopard et du Singe</t>
+  </si>
+  <si>
+    <t>Felicia Hemans</t>
+  </si>
+  <si>
+    <t>Fenelon</t>
+  </si>
+  <si>
+    <t>Fitzgerald, M. P.</t>
+  </si>
+  <si>
+    <t>Francesco Albani</t>
+  </si>
+  <si>
+    <t>Francis W. Bourdillon</t>
+  </si>
+  <si>
+    <t>Francois de Neufchâteau</t>
+  </si>
+  <si>
+    <t>François Gerard</t>
+  </si>
+  <si>
+    <t>Fumars</t>
+  </si>
+  <si>
+    <t>G. Moir Bussey</t>
+  </si>
+  <si>
+    <t>G. W. Cox</t>
+  </si>
+  <si>
+    <t>Galen</t>
+  </si>
+  <si>
+    <t>Gaudin</t>
+  </si>
+  <si>
+    <t>Gaume</t>
+  </si>
+  <si>
+    <t>George Eliot</t>
+  </si>
+  <si>
+    <t>George Stephens</t>
+  </si>
+  <si>
+    <t>George T. Dippold</t>
+  </si>
+  <si>
+    <t>Gérard, François</t>
+  </si>
+  <si>
+    <t>Geruzez</t>
+  </si>
+  <si>
+    <t>Giotto</t>
+  </si>
+  <si>
+    <t>Goëthe</t>
+  </si>
+  <si>
+    <t>Grace H. Kupfer</t>
+  </si>
+  <si>
+    <t>Guido</t>
+  </si>
+  <si>
+    <t>Guillaume Bertoux</t>
+  </si>
+  <si>
+    <t>Guymond de la Touche</t>
+  </si>
+  <si>
+    <t>H. A. Guerber</t>
+  </si>
+  <si>
+    <t>H. Coleridge</t>
+  </si>
+  <si>
+    <t>H. D. Müller</t>
+  </si>
+  <si>
+    <t>H. H. Wilson</t>
+  </si>
+  <si>
+    <t>H. W. Mabie</t>
+  </si>
+  <si>
+    <t>He′siod</t>
+  </si>
+  <si>
+    <t>Hegel</t>
+  </si>
+  <si>
+    <t>Helladius</t>
+  </si>
+  <si>
+    <t>Henri Engrand</t>
+  </si>
+  <si>
+    <t>Henry W. Longfellow</t>
+  </si>
+  <si>
+    <t>Hermès</t>
+  </si>
+  <si>
+    <t>Hermite, de Maillane</t>
+  </si>
+  <si>
+    <t>Herod′otus</t>
+  </si>
+  <si>
+    <t>Ho′mer</t>
+  </si>
+  <si>
+    <t>Hoffmann</t>
+  </si>
+  <si>
+    <t>Huc</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Humboldt</t>
+  </si>
+  <si>
+    <t>Hy-gi′nus</t>
+  </si>
+  <si>
+    <t>Hyacinthe Morel</t>
+  </si>
+  <si>
+    <t>Ib′ycus</t>
+  </si>
+  <si>
+    <t>Ictinus</t>
+  </si>
+  <si>
+    <t>Idem</t>
+  </si>
+  <si>
+    <t>Il</t>
+  </si>
+  <si>
+    <t>Isaïe</t>
+  </si>
+  <si>
+    <t>J. A. Wiertz</t>
+  </si>
+  <si>
+    <t>J. B.</t>
+  </si>
+  <si>
+    <t>J. B. de l’Académie française</t>
+  </si>
+  <si>
+    <t>J. B. de Saint-Victor</t>
+  </si>
+  <si>
+    <t>J. Hoffmann</t>
+  </si>
+  <si>
+    <t>J. J. Rousseau</t>
+  </si>
+  <si>
+    <t>J. Racine</t>
+  </si>
+  <si>
+    <t>Jacques Édom</t>
+  </si>
+  <si>
+    <t>James Gates Percival</t>
+  </si>
+  <si>
+    <t>James Russell Lowell</t>
+  </si>
+  <si>
+    <t>James Sime</t>
+  </si>
+  <si>
+    <t>Jean Humbert</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Brès</t>
+  </si>
+  <si>
+    <t>Jennings</t>
+  </si>
+  <si>
+    <t>Jeremias</t>
+  </si>
+  <si>
+    <t>Jérémie</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Jodelle</t>
+  </si>
+  <si>
+    <t>John Lewis March</t>
+  </si>
+  <si>
+    <t>Johnston, T. C.</t>
+  </si>
+  <si>
+    <t>Jonston</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Josephe</t>
+  </si>
+  <si>
+    <t>Jules Lefebvre</t>
+  </si>
+  <si>
+    <t>Julie. — Laurencin</t>
+  </si>
+  <si>
+    <t>Julius Firmicus</t>
+  </si>
+  <si>
+    <t>Justin (Saint)</t>
+  </si>
+  <si>
+    <t>Keat</t>
+  </si>
+  <si>
+    <t>Klopstoch</t>
+  </si>
+  <si>
+    <t>L. E. L.</t>
+  </si>
+  <si>
+    <t>L. J. Richardson</t>
+  </si>
+  <si>
+    <t>L’abbé Roman, d’Avignon</t>
+  </si>
+  <si>
+    <t>L’auteur d’Anacharsis</t>
+  </si>
+  <si>
+    <t>l’auteur du Voyage d’Anacharsis</t>
+  </si>
+  <si>
+    <t>l’auteur du Voyage du jeune Anacharsis</t>
+  </si>
+  <si>
+    <t>La Bruyère</t>
+  </si>
+  <si>
+    <t>la Chaussée</t>
+  </si>
+  <si>
+    <t>La Fontaine</t>
+  </si>
+  <si>
+    <t>La même</t>
+  </si>
+  <si>
+    <t>La Thuilerie</t>
+  </si>
+  <si>
+    <t>Lagrange</t>
+  </si>
+  <si>
+    <t>Laman Blanchard</t>
+  </si>
+  <si>
+    <t>Lamartine</t>
+  </si>
+  <si>
+    <t>Latin historian</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>Le cardinal de Bernis</t>
+  </si>
+  <si>
+    <t>Le Noble</t>
+  </si>
+  <si>
+    <t>le vieux poëte</t>
+  </si>
+  <si>
+    <t>Leblanc-de-Guillet</t>
+  </si>
+  <si>
+    <t>législateur de notre Parnasse</t>
+  </si>
+  <si>
+    <t>Léopardi</t>
+  </si>
+  <si>
+    <t>les moralistes</t>
+  </si>
+  <si>
+    <t>Lewis Campbell</t>
+  </si>
+  <si>
+    <t>Linnæus</t>
+  </si>
+  <si>
+    <t>Lorenzo Bernini</t>
+  </si>
+  <si>
+    <t>Louis Baude</t>
+  </si>
+  <si>
+    <t>Lu′cian</t>
+  </si>
+  <si>
+    <t>Luce de Lancival</t>
+  </si>
+  <si>
+    <t>Lucille</t>
+  </si>
+  <si>
+    <t>Lydiat</t>
+  </si>
+  <si>
+    <t>M. Arn.</t>
+  </si>
+  <si>
+    <t>M. Delille</t>
+  </si>
+  <si>
+    <t>M. Huet</t>
+  </si>
+  <si>
+    <t>M. P. Fitzgerald</t>
+  </si>
+  <si>
+    <t>M. Petit</t>
+  </si>
+  <si>
+    <t>M. T. Cicéron</t>
+  </si>
+  <si>
+    <t>Ma′ro</t>
+  </si>
+  <si>
+    <t>Machiavel</t>
+  </si>
+  <si>
+    <t>Mademoiselle de Scudéri</t>
+  </si>
+  <si>
+    <t>Mæcenas</t>
+  </si>
+  <si>
+    <t>Magnusson</t>
+  </si>
+  <si>
+    <t>Maistre</t>
+  </si>
+  <si>
+    <t>Malfilâtre</t>
+  </si>
+  <si>
+    <t>Manès</t>
+  </si>
+  <si>
+    <t>Manil′ius</t>
+  </si>
+  <si>
+    <t>Mantuan swan</t>
+  </si>
+  <si>
+    <t>Marmontel</t>
+  </si>
+  <si>
+    <t>Marsham</t>
+  </si>
+  <si>
+    <t>Mary Howitt</t>
+  </si>
+  <si>
+    <t>Me-ne′nius</t>
+  </si>
+  <si>
+    <t>Mercure Trismégiste</t>
+  </si>
+  <si>
+    <t>Mercury Trismegistus</t>
+  </si>
+  <si>
+    <t>Métagène</t>
+  </si>
+  <si>
+    <t>Michel Angelo</t>
+  </si>
+  <si>
+    <t>Millevoye</t>
+  </si>
+  <si>
+    <t>Miss A. B. Edwards</t>
+  </si>
+  <si>
+    <t>Mitford’s</t>
+  </si>
+  <si>
+    <t>Mme d’Épinay</t>
+  </si>
+  <si>
+    <t>Mme de Genlis</t>
+  </si>
+  <si>
+    <t>Mme de Lambert</t>
+  </si>
+  <si>
+    <t>Mme de Staël</t>
+  </si>
+  <si>
+    <t>Mme du Deffant</t>
+  </si>
+  <si>
+    <t>Mme Geoffrin</t>
+  </si>
+  <si>
+    <t>Montesquieu</t>
+  </si>
+  <si>
+    <t>Mos′chus</t>
+  </si>
+  <si>
+    <t>Motherwell, W.</t>
+  </si>
+  <si>
+    <t>Mr. Jasper</t>
+  </si>
+  <si>
+    <t>Mrs. E. Barrett Browning</t>
+  </si>
+  <si>
+    <t>Mrs. Jameson</t>
+  </si>
+  <si>
+    <t>Mrs. Norton</t>
+  </si>
+  <si>
+    <t>Mu-sæ′us</t>
+  </si>
+  <si>
+    <t>Müller, H. D.</t>
+  </si>
+  <si>
+    <t>My′ron</t>
+  </si>
+  <si>
+    <t>Myer</t>
+  </si>
+  <si>
+    <t>N. L. Frothingham</t>
+  </si>
+  <si>
+    <t>N. Schiavoni</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>notre Auteur</t>
+  </si>
+  <si>
+    <t>notre Euclide</t>
+  </si>
+  <si>
+    <t>O. Jahn</t>
+  </si>
+  <si>
+    <t>O. Müller</t>
+  </si>
+  <si>
+    <t>Offenbach</t>
+  </si>
+  <si>
+    <t>Onatas, fils de Mycon</t>
+  </si>
+  <si>
+    <t>One of the ancients</t>
+  </si>
+  <si>
+    <t>One of the Greek poets</t>
+  </si>
+  <si>
+    <t>One of the Roman poets</t>
+  </si>
+  <si>
+    <t>one of the Roman writers</t>
+  </si>
+  <si>
+    <t>Orbetto)</t>
+  </si>
+  <si>
+    <t>Origène</t>
+  </si>
+  <si>
+    <t>Ov′id</t>
+  </si>
+  <si>
+    <t>Ovidius Naso</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P.</t>
+  </si>
+  <si>
+    <t>P. Villiers</t>
+  </si>
+  <si>
+    <t>Paolo Veronese</t>
+  </si>
+  <si>
+    <t>Parny</t>
+  </si>
+  <si>
+    <t>Parrhasius</t>
+  </si>
+  <si>
+    <t>Pausa′nias</t>
+  </si>
+  <si>
+    <t>Pavillon</t>
+  </si>
+  <si>
+    <t>Payne Knight</t>
+  </si>
+  <si>
+    <t>Pedro Covilham</t>
+  </si>
+  <si>
+    <t>peintre de Lavinie</t>
+  </si>
+  <si>
+    <t>Percy Bysshe Shelley</t>
+  </si>
+  <si>
+    <t>Périandre </t>
+  </si>
+  <si>
+    <t>Perrot</t>
+  </si>
+  <si>
+    <t>Phæ′drus</t>
+  </si>
+  <si>
+    <t>Phid′ias</t>
+  </si>
+  <si>
+    <t>Phidian</t>
+  </si>
+  <si>
+    <t>Philippon de la Madeleine</t>
+  </si>
+  <si>
+    <t>Philon de Biblos</t>
+  </si>
+  <si>
+    <t>Phlégon</t>
+  </si>
+  <si>
+    <t>Phrygien</t>
+  </si>
+  <si>
+    <t>Pin′dar</t>
+  </si>
+  <si>
+    <t>Pitt’sVirgil</t>
+  </si>
+  <si>
+    <t>Pittacus </t>
+  </si>
+  <si>
+    <t>Pline, le naturaliste</t>
+  </si>
+  <si>
+    <t>Plinius, (Secundus C.)</t>
+  </si>
+  <si>
+    <t>Pliny the Elder</t>
+  </si>
+  <si>
+    <t>Pliny the Younger</t>
+  </si>
+  <si>
+    <t>Poëte</t>
+  </si>
+  <si>
+    <t>Polycli′tus</t>
+  </si>
+  <si>
+    <t>Pomponius Méla</t>
+  </si>
+  <si>
+    <t>Pons de Verdun,</t>
+  </si>
+  <si>
+    <t>Pope’s Homer</t>
+  </si>
+  <si>
+    <t>Potter’s Euripides</t>
+  </si>
+  <si>
+    <t>Praxit′e-les</t>
+  </si>
+  <si>
+    <t>Prescott</t>
+  </si>
+  <si>
+    <t>Prideaux</t>
+  </si>
+  <si>
+    <t>Prod′icus of Chios</t>
+  </si>
+  <si>
+    <t>Proper′tius</t>
+  </si>
+  <si>
+    <t>Pseu′do-Musæ′us</t>
+  </si>
+  <si>
+    <t>Ptolémée</t>
+  </si>
+  <si>
+    <t>Publius Virgilius Maro</t>
+  </si>
+  <si>
+    <t>Py-thag′oras</t>
+  </si>
+  <si>
+    <t>quelques auteurs</t>
+  </si>
+  <si>
+    <t>R. B. Anderson</t>
+  </si>
+  <si>
+    <t>R. Beyschlag</t>
+  </si>
+  <si>
+    <t>R. Browning</t>
+  </si>
+  <si>
+    <t>R. C. Jebb</t>
+  </si>
+  <si>
+    <t>Raboteau</t>
+  </si>
+  <si>
+    <t>Raphaël</t>
+  </si>
+  <si>
+    <t>Régnier</t>
+  </si>
+  <si>
+    <t>René</t>
+  </si>
+  <si>
+    <t>Reynaud</t>
+  </si>
+  <si>
+    <t>Richard-Castel</t>
+  </si>
+  <si>
+    <t>Richardson, L. J.</t>
+  </si>
+  <si>
+    <t>Rivery</t>
+  </si>
+  <si>
+    <t>S. A. Edwards</t>
+  </si>
+  <si>
+    <t>S. G.</t>
+  </si>
+  <si>
+    <t>S. G. B.</t>
+  </si>
+  <si>
+    <t>saint Cyprien</t>
+  </si>
+  <si>
+    <t>Saint-Simon</t>
+  </si>
+  <si>
+    <t>Salluste</t>
+  </si>
+  <si>
+    <t>Sâmund Sigfûsson</t>
+  </si>
+  <si>
+    <t>Sanlec.</t>
+  </si>
+  <si>
+    <t>Santeul</t>
+  </si>
+  <si>
+    <t>Schnorr von Carolsfeld</t>
+  </si>
+  <si>
+    <t>Schoolcraft</t>
+  </si>
+  <si>
+    <t>Sco′pas</t>
+  </si>
+  <si>
+    <t>Selden</t>
+  </si>
+  <si>
+    <t>Sen′eca</t>
+  </si>
+  <si>
+    <t>Signor Cellini</t>
+  </si>
+  <si>
+    <t>Simon′i-des of Ceos</t>
+  </si>
+  <si>
+    <t>Sir James Edward Smith</t>
+  </si>
+  <si>
+    <t>Sir James Mackintosh</t>
+  </si>
+  <si>
+    <t>Sir John Denham</t>
+  </si>
+  <si>
+    <t>Sir T. Martin</t>
+  </si>
+  <si>
+    <t>Sir Thomas Browne</t>
+  </si>
+  <si>
+    <t>Sir Thos. Noon Talfourd</t>
+  </si>
+  <si>
+    <t>Sir Walter Scott</t>
+  </si>
+  <si>
+    <t>Snorro Sturleson</t>
+  </si>
+  <si>
+    <t>Socrate </t>
+  </si>
+  <si>
+    <t>Sœmund Sigfuson</t>
+  </si>
+  <si>
+    <t>Solon </t>
+  </si>
+  <si>
+    <t>some of their writers</t>
+  </si>
+  <si>
+    <t>Soph′o-cles</t>
+  </si>
+  <si>
+    <t>Sophie de Renneville</t>
+  </si>
+  <si>
+    <t>Sophus Bugge</t>
+  </si>
+  <si>
+    <t>Sta′tius</t>
+  </si>
+  <si>
+    <t>Stesich′orus</t>
+  </si>
+  <si>
+    <t>Sydney Dobell</t>
+  </si>
+  <si>
+    <t>Syncelle</t>
+  </si>
+  <si>
+    <t>T. C. Johnston</t>
+  </si>
+  <si>
+    <t>T. K. Harvey</t>
+  </si>
+  <si>
+    <t>T. Moore</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>Tasse</t>
+  </si>
+  <si>
+    <t>Thalès de Milet</t>
+  </si>
+  <si>
+    <t>the poet</t>
+  </si>
+  <si>
+    <t>the poet who had transmitted his fame to posterity</t>
+  </si>
+  <si>
+    <t>The same author</t>
+  </si>
+  <si>
+    <t>the same poet’s</t>
+  </si>
+  <si>
+    <t>Theag′e-nes of Rhegium</t>
+  </si>
+  <si>
+    <t>Theoc′ritus</t>
+  </si>
+  <si>
+    <t>Theveneau</t>
+  </si>
+  <si>
+    <t>Thomas Babington Macaulay</t>
+  </si>
+  <si>
+    <t>Thomas Corneille</t>
+  </si>
+  <si>
+    <t>Thomas Davidson</t>
+  </si>
+  <si>
+    <t>Thomas Hyde</t>
+  </si>
+  <si>
+    <t>Thomas Lodge</t>
+  </si>
+  <si>
+    <t>Thomas, Edith M.</t>
+  </si>
+  <si>
+    <t>Thos. Dale</t>
+  </si>
+  <si>
+    <t>Thos. Moore</t>
+  </si>
+  <si>
+    <t>Thos. Woolner</t>
+  </si>
+  <si>
+    <t>Thot</t>
+  </si>
+  <si>
+    <t>Thrasymède de Paros</t>
+  </si>
+  <si>
+    <t>Thucyd′i-des</t>
+  </si>
+  <si>
+    <t>Tibul′lus</t>
+  </si>
+  <si>
+    <t>Tibule</t>
+  </si>
+  <si>
+    <t>Timée de Sicile</t>
+  </si>
+  <si>
+    <t>Tooke</t>
+  </si>
+  <si>
+    <t>Tourangeau</t>
+  </si>
+  <si>
+    <t>Traduction libre</t>
+  </si>
+  <si>
+    <t>Trophonius</t>
+  </si>
+  <si>
+    <t>Turchi, Alessandro (l</t>
+  </si>
+  <si>
+    <t>Turner, J. M. W.</t>
+  </si>
+  <si>
+    <t>un auteur de ce pays</t>
+  </si>
+  <si>
+    <t>Un auteur espagnol</t>
+  </si>
+  <si>
+    <t>un auteur latin</t>
+  </si>
+  <si>
+    <t>Un auteur persan</t>
+  </si>
+  <si>
+    <t>un célèbre architecte romain</t>
+  </si>
+  <si>
+    <t>Un Poëte</t>
+  </si>
+  <si>
+    <t>un poëte ancien</t>
+  </si>
+  <si>
+    <t>Un Poëte célèbre</t>
+  </si>
+  <si>
+    <t>Un poëte moderne</t>
+  </si>
+  <si>
+    <t>un sage de l’antiquité</t>
+  </si>
+  <si>
+    <t>un second Mercure égyptien, que l’on surnomma Trismégiste</t>
+  </si>
+  <si>
+    <t>une société d’Anglais</t>
+  </si>
+  <si>
+    <t>Vale′rius Flaccus</t>
+  </si>
+  <si>
+    <t>Ver′gil</t>
+  </si>
+  <si>
+    <t>vieillard d’Ascrée</t>
+  </si>
+  <si>
+    <t>Viennet</t>
+  </si>
+  <si>
+    <t>Volney</t>
+  </si>
+  <si>
+    <t>W. C. Bennett</t>
+  </si>
+  <si>
+    <t>W. C. Bryant</t>
+  </si>
+  <si>
+    <t>W. H. Appleton</t>
+  </si>
+  <si>
+    <t>W. Kray</t>
+  </si>
+  <si>
+    <t>W. L. Collins</t>
+  </si>
+  <si>
+    <t>W. Ward</t>
+  </si>
+  <si>
+    <t>Wælcken</t>
+  </si>
+  <si>
+    <t>Walter Savage Landor</t>
+  </si>
+  <si>
+    <t>Walter Scott</t>
+  </si>
+  <si>
+    <t>William Adams</t>
+  </si>
+  <si>
+    <t>William C. Bryant</t>
+  </si>
+  <si>
+    <t>William Darlington</t>
+  </si>
+  <si>
+    <t>William Jillard Hort</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>William Shakspeare</t>
+  </si>
+  <si>
+    <t>Wm. Morris</t>
+  </si>
+  <si>
+    <t>Zenodorus</t>
+  </si>
+  <si>
+    <t>Zénon</t>
+  </si>
+  <si>
+    <t>Zeux′is</t>
   </si>
 </sst>
 </file>
@@ -10656,7 +12646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G942"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+    <sheetView zoomScale="191" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
@@ -26522,8 +28512,8 @@
   <dimension ref="A1:B1800"/>
   <sheetViews>
     <sheetView zoomScale="194" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B847" sqref="B847"/>
+      <pane ySplit="1" topLeftCell="A1059" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1068" sqref="B1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40937,4 +42927,5891 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B734"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B734"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/mythographie.xlsx
+++ b/data/mythographie.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/mythographies/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegopellizzari/Documents/OBVIL/mythographie/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="mythographie_nodes.csv" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7298" uniqueCount="3952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7312" uniqueCount="3953">
   <si>
     <t>Francklin’s</t>
   </si>
@@ -12109,6 +12109,24 @@
   </si>
   <si>
     <t>Zeux′is</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>ttérature</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -12646,9 +12664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G942"/>
   <sheetViews>
-    <sheetView zoomScale="191" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13519,8 +13537,8 @@
       <c r="D44">
         <v>-322</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>3144</v>
+      <c r="E44" s="1" t="s">
+        <v>3952</v>
       </c>
       <c r="F44" t="s">
         <v>3112</v>
@@ -13729,7 +13747,7 @@
         <v>430</v>
       </c>
       <c r="E54" t="s">
-        <v>3144</v>
+        <v>3106</v>
       </c>
       <c r="F54" t="s">
         <v>3105</v>
@@ -24336,6 +24354,18 @@
       <c r="B636" t="s">
         <v>507</v>
       </c>
+      <c r="C636">
+        <v>-43</v>
+      </c>
+      <c r="D636">
+        <v>17</v>
+      </c>
+      <c r="E636" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F636" t="s">
+        <v>3105</v>
+      </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
@@ -24593,7 +24623,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>3256</v>
       </c>
@@ -24607,7 +24637,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>2500</v>
       </c>
@@ -24621,7 +24651,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>277</v>
       </c>
@@ -24635,7 +24665,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>2501</v>
       </c>
@@ -24649,7 +24679,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>2502</v>
       </c>
@@ -24663,7 +24693,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>2043</v>
       </c>
@@ -24677,7 +24707,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>2924</v>
       </c>
@@ -24691,7 +24721,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>2926</v>
       </c>
@@ -24705,7 +24735,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>2503</v>
       </c>
@@ -24719,7 +24749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>2928</v>
       </c>
@@ -24733,7 +24763,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>2069</v>
       </c>
@@ -24747,7 +24777,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>2930</v>
       </c>
@@ -24761,7 +24791,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>1298</v>
       </c>
@@ -24775,7 +24805,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>2504</v>
       </c>
@@ -24789,7 +24819,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>2505</v>
       </c>
@@ -24797,7 +24827,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>279</v>
       </c>
@@ -24810,8 +24840,14 @@
       <c r="D672">
         <v>-431</v>
       </c>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E672" t="s">
+        <v>3107</v>
+      </c>
+      <c r="F672" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>2832</v>
       </c>
@@ -24825,7 +24861,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>2003</v>
       </c>
@@ -24839,7 +24875,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>2082</v>
       </c>
@@ -24853,7 +24889,7 @@
         <v>-318</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>2506</v>
       </c>
@@ -24867,7 +24903,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>2507</v>
       </c>
@@ -24881,7 +24917,7 @@
         <v>-470</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>2508</v>
       </c>
@@ -24895,7 +24931,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>3060</v>
       </c>
@@ -24909,7 +24945,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>280</v>
       </c>
@@ -24923,7 +24959,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>2509</v>
       </c>
@@ -24936,8 +24972,14 @@
       <c r="D681">
         <v>-438</v>
       </c>
-    </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E681" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F681" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>2510</v>
       </c>
@@ -24951,7 +24993,7 @@
         <v>-590</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>2511</v>
       </c>
@@ -24965,7 +25007,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>285</v>
       </c>
@@ -24979,7 +25021,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>3030</v>
       </c>
@@ -24993,7 +25035,7 @@
         <v>-569</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>2512</v>
       </c>
@@ -25007,7 +25049,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>2513</v>
       </c>
@@ -25021,7 +25063,7 @@
         <v>-348</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>2514</v>
       </c>
@@ -25937,7 +25979,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>3263</v>
       </c>
@@ -25951,7 +25993,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>2952</v>
       </c>
@@ -25965,7 +26007,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>1372</v>
       </c>
@@ -25979,7 +26021,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>2540</v>
       </c>
@@ -25993,7 +26035,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>2541</v>
       </c>
@@ -26007,7 +26049,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>2542</v>
       </c>
@@ -26015,7 +26057,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>1376</v>
       </c>
@@ -26029,7 +26071,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>2994</v>
       </c>
@@ -26043,7 +26085,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>2954</v>
       </c>
@@ -26057,7 +26099,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>3264</v>
       </c>
@@ -26070,8 +26112,14 @@
       <c r="D762">
         <v>1741</v>
       </c>
-    </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E762" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F762" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>2543</v>
       </c>
@@ -26085,7 +26133,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>2544</v>
       </c>
@@ -26099,7 +26147,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>2956</v>
       </c>
@@ -26113,7 +26161,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>1380</v>
       </c>
@@ -26127,7 +26175,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>1382</v>
       </c>
@@ -26141,7 +26189,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>2958</v>
       </c>
@@ -27875,7 +27923,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>3006</v>
       </c>
@@ -27889,7 +27937,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>3008</v>
       </c>
@@ -27903,7 +27951,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>3035</v>
       </c>
@@ -27917,7 +27965,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>2608</v>
       </c>
@@ -27931,7 +27979,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>383</v>
       </c>
@@ -27944,8 +27992,14 @@
       <c r="D901">
         <v>-19</v>
       </c>
-    </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E901" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F901" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>3014</v>
       </c>
@@ -27959,7 +28013,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>386</v>
       </c>
@@ -27972,8 +28026,14 @@
       <c r="D903">
         <v>1778</v>
       </c>
-    </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E903" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F903" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>2609</v>
       </c>
@@ -27987,7 +28047,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>1861</v>
       </c>
@@ -27995,7 +28055,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>2610</v>
       </c>
@@ -28009,7 +28069,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>2611</v>
       </c>
@@ -28023,7 +28083,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>1583</v>
       </c>
@@ -28037,7 +28097,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>2612</v>
       </c>
@@ -28051,7 +28111,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>2613</v>
       </c>
@@ -28065,7 +28125,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>390</v>
       </c>
@@ -28079,7 +28139,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>1589</v>
       </c>
@@ -28311,7 +28371,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>2622</v>
       </c>
@@ -28325,7 +28385,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>2623</v>
       </c>
@@ -28339,7 +28399,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>1619</v>
       </c>
@@ -28353,7 +28413,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>2624</v>
       </c>
@@ -28367,7 +28427,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>392</v>
       </c>
@@ -28381,7 +28441,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>393</v>
       </c>
@@ -28395,7 +28455,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>2625</v>
       </c>
@@ -28409,7 +28469,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>2626</v>
       </c>
@@ -28423,7 +28483,7 @@
         <v>-355</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>2232</v>
       </c>
@@ -28431,7 +28491,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>394</v>
       </c>
@@ -28444,8 +28504,14 @@
       <c r="D938">
         <v>1765</v>
       </c>
-    </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E938" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F938" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>2627</v>
       </c>
@@ -28459,7 +28525,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>2210</v>
       </c>
@@ -28473,7 +28539,7 @@
         <v>-398</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>2628</v>
       </c>
@@ -28487,7 +28553,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>3036</v>
       </c>
@@ -42933,7 +42999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B734"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B734"/>
     </sheetView>
   </sheetViews>

--- a/data/mythographie.xlsx
+++ b/data/mythographie.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegopellizzari/Documents/OBVIL/mythographie/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/mythographies/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="mythographie_nodes.csv" sheetId="3" r:id="rId1"/>
     <sheet name="Graphies" sheetId="1" r:id="rId2"/>
     <sheet name="Graphie non reconnues" sheetId="4" r:id="rId3"/>
+    <sheet name="Manuels" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="list_aut_1" localSheetId="1">Graphies!$A$4:$A$1531</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7312" uniqueCount="3953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7376" uniqueCount="3985">
   <si>
     <t>Francklin’s</t>
   </si>
@@ -12127,6 +12128,102 @@
       </rPr>
       <t>ttérature</t>
     </r>
+  </si>
+  <si>
+    <t>Adams (1900)</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Anonyme (1842)</t>
+  </si>
+  <si>
+    <t>Baude (1845)</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Bertoux (1806)</t>
+  </si>
+  <si>
+    <t>Brès (1823)</t>
+  </si>
+  <si>
+    <t>Brunel (1800)</t>
+  </si>
+  <si>
+    <t>Brunel (1807)</t>
+  </si>
+  <si>
+    <t>Bulfinch (1855)</t>
+  </si>
+  <si>
+    <t>Darlington (1832)</t>
+  </si>
+  <si>
+    <t>Drioux (1850)</t>
+  </si>
+  <si>
+    <t>Édom (1883)</t>
+  </si>
+  <si>
+    <t>Edwards (1883)</t>
+  </si>
+  <si>
+    <t>Ellis (1895)</t>
+  </si>
+  <si>
+    <t>Engrand (1815)</t>
+  </si>
+  <si>
+    <t>Gayley (1898)</t>
+  </si>
+  <si>
+    <t>Genlis (1810)</t>
+  </si>
+  <si>
+    <t>Géruzez (1869)</t>
+  </si>
+  <si>
+    <t>Guerber (1909)</t>
+  </si>
+  <si>
+    <t>Hort (1836)</t>
+  </si>
+  <si>
+    <t>Humbert (1847)</t>
+  </si>
+  <si>
+    <t>Kupfer (1897)</t>
+  </si>
+  <si>
+    <t>Le Tellier (1812)</t>
+  </si>
+  <si>
+    <t>Morel 1864</t>
+  </si>
+  <si>
+    <t>Ordinaire (1866)</t>
+  </si>
+  <si>
+    <t>Renneville (1847)</t>
+  </si>
+  <si>
+    <t>Robbins (1833)</t>
+  </si>
+  <si>
+    <t>Robbins (1860)</t>
+  </si>
+  <si>
+    <t>Tressan (1822)</t>
+  </si>
+  <si>
+    <t>White (1889)</t>
+  </si>
+  <si>
+    <t>langmanuel</t>
   </si>
 </sst>
 </file>
@@ -48880,4 +48977,275 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>